--- a/raw_data/agrecalc_output/2022_results.xlsx
+++ b/raw_data/agrecalc_output/2022_results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00768540\Desktop\Agrecalc\Data exports\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveharperac-my.sharepoint.com/personal/arogers_harper-adams_ac_uk/Documents/Agrecalc/Data exports/2022/Updated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340FF879-FC5C-4D6A-BACE-9762F3498C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84A8EDC-B0A0-4EA5-A581-E0488515CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7065"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="dataexport (9)" sheetId="1" r:id="rId1"/>
+    <sheet name="dataexport (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1371,22 +1371,22 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="83" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="83" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1637,509 +1637,509 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3">
-        <v>31028705</v>
+        <v>36007253</v>
       </c>
       <c r="C3" s="3">
-        <v>31028706</v>
+        <v>36007254</v>
       </c>
       <c r="D3" s="3">
-        <v>31028707</v>
+        <v>36007255</v>
       </c>
       <c r="E3" s="3">
-        <v>31028708</v>
+        <v>36007256</v>
       </c>
       <c r="F3" s="3">
-        <v>31028709</v>
+        <v>36007257</v>
       </c>
       <c r="G3" s="3">
-        <v>31028710</v>
+        <v>36007258</v>
       </c>
       <c r="H3" s="3">
-        <v>31028711</v>
+        <v>36007259</v>
       </c>
       <c r="I3" s="3">
-        <v>31028712</v>
+        <v>36007260</v>
       </c>
       <c r="J3" s="3">
-        <v>31028713</v>
+        <v>36007261</v>
       </c>
       <c r="K3" s="3">
-        <v>31028714</v>
+        <v>36007262</v>
       </c>
       <c r="L3" s="3">
-        <v>31028715</v>
+        <v>36007263</v>
       </c>
       <c r="M3" s="3">
-        <v>31028716</v>
+        <v>36007264</v>
       </c>
       <c r="N3" s="3">
-        <v>31028717</v>
+        <v>36007265</v>
       </c>
       <c r="O3" s="3">
-        <v>31028718</v>
+        <v>36007266</v>
       </c>
       <c r="P3" s="3">
-        <v>31028719</v>
+        <v>36007267</v>
       </c>
       <c r="Q3" s="3">
-        <v>31028720</v>
+        <v>36007268</v>
       </c>
       <c r="R3" s="3">
-        <v>31028721</v>
+        <v>36007269</v>
       </c>
       <c r="S3" s="3">
-        <v>31028722</v>
+        <v>36007270</v>
       </c>
       <c r="T3" s="3">
-        <v>31028723</v>
+        <v>36007271</v>
       </c>
       <c r="U3" s="3">
-        <v>31028724</v>
+        <v>36007272</v>
       </c>
       <c r="V3" s="3">
-        <v>31028725</v>
+        <v>36007273</v>
       </c>
       <c r="W3" s="3">
-        <v>31028726</v>
+        <v>36007274</v>
       </c>
       <c r="X3" s="3">
-        <v>31028727</v>
+        <v>36007275</v>
       </c>
       <c r="Y3" s="3">
-        <v>31028728</v>
+        <v>36007276</v>
       </c>
       <c r="Z3" s="3">
-        <v>31028729</v>
+        <v>36007277</v>
       </c>
       <c r="AA3" s="3">
-        <v>31028730</v>
+        <v>36007278</v>
       </c>
       <c r="AB3" s="3">
-        <v>31028731</v>
+        <v>36007279</v>
       </c>
       <c r="AC3" s="3">
-        <v>31028732</v>
+        <v>36007280</v>
       </c>
       <c r="AD3" s="3">
-        <v>31028733</v>
+        <v>36007281</v>
       </c>
       <c r="AE3" s="3">
-        <v>31028734</v>
+        <v>36007282</v>
       </c>
       <c r="AF3" s="3">
-        <v>31028735</v>
+        <v>36007283</v>
       </c>
       <c r="AG3" s="3">
-        <v>31028736</v>
+        <v>36007284</v>
       </c>
       <c r="AH3" s="3">
-        <v>31028737</v>
+        <v>36007285</v>
       </c>
       <c r="AI3" s="3">
-        <v>31028738</v>
+        <v>36007286</v>
       </c>
       <c r="AJ3" s="3">
-        <v>31028739</v>
+        <v>36007287</v>
       </c>
       <c r="AK3" s="3">
-        <v>31028740</v>
+        <v>36007288</v>
       </c>
       <c r="AL3" s="3">
-        <v>31028741</v>
+        <v>36007289</v>
       </c>
       <c r="AM3" s="3">
-        <v>31028742</v>
+        <v>36007290</v>
       </c>
       <c r="AN3" s="3">
-        <v>31028743</v>
+        <v>36007291</v>
       </c>
       <c r="AO3" s="3">
-        <v>31028744</v>
+        <v>36007292</v>
       </c>
       <c r="AP3" s="3">
-        <v>31028745</v>
+        <v>36007293</v>
       </c>
       <c r="AQ3" s="3">
-        <v>31028746</v>
+        <v>36007294</v>
       </c>
       <c r="AR3" s="3">
-        <v>31028747</v>
+        <v>36007295</v>
       </c>
       <c r="AS3" s="3">
-        <v>31028748</v>
+        <v>36007296</v>
       </c>
       <c r="AT3" s="3">
-        <v>31028749</v>
+        <v>36007297</v>
       </c>
       <c r="AU3" s="3">
-        <v>31028750</v>
+        <v>36007298</v>
       </c>
       <c r="AV3" s="3">
-        <v>31028751</v>
+        <v>36007299</v>
       </c>
       <c r="AW3" s="3">
-        <v>31028752</v>
+        <v>36007300</v>
       </c>
       <c r="AX3" s="3">
-        <v>31028753</v>
+        <v>36007301</v>
       </c>
       <c r="AY3" s="3">
-        <v>31028754</v>
+        <v>36007302</v>
       </c>
       <c r="AZ3" s="3">
-        <v>31028755</v>
+        <v>36007303</v>
       </c>
       <c r="BA3" s="3">
-        <v>31028756</v>
+        <v>36007304</v>
       </c>
       <c r="BB3" s="3">
-        <v>31028757</v>
+        <v>36007305</v>
       </c>
       <c r="BC3" s="3">
-        <v>31028758</v>
+        <v>36007306</v>
       </c>
       <c r="BD3" s="3">
-        <v>31028759</v>
+        <v>36007307</v>
       </c>
       <c r="BE3" s="3">
-        <v>31028760</v>
+        <v>36007308</v>
       </c>
       <c r="BF3" s="3">
-        <v>31028761</v>
+        <v>36007309</v>
       </c>
       <c r="BG3" s="3">
-        <v>31028762</v>
+        <v>36007310</v>
       </c>
       <c r="BH3" s="3">
-        <v>31028763</v>
+        <v>36007311</v>
       </c>
       <c r="BI3" s="3">
-        <v>31028764</v>
+        <v>36007312</v>
       </c>
       <c r="BJ3" s="3">
-        <v>31028765</v>
+        <v>36007313</v>
       </c>
       <c r="BK3" s="3">
-        <v>31028766</v>
+        <v>36007314</v>
       </c>
       <c r="BL3" s="3">
-        <v>31028767</v>
+        <v>36007315</v>
       </c>
       <c r="BM3" s="3">
-        <v>31028768</v>
+        <v>36007316</v>
       </c>
       <c r="BN3" s="3">
-        <v>31028769</v>
+        <v>36007317</v>
       </c>
       <c r="BO3" s="3">
-        <v>31028770</v>
+        <v>36007318</v>
       </c>
       <c r="BP3" s="3">
-        <v>31028771</v>
+        <v>36007319</v>
       </c>
       <c r="BQ3" s="3">
-        <v>31028772</v>
+        <v>36007320</v>
       </c>
       <c r="BR3" s="3">
-        <v>31028773</v>
+        <v>36007321</v>
       </c>
       <c r="BS3" s="3">
-        <v>31028774</v>
+        <v>36007322</v>
       </c>
       <c r="BT3" s="3">
-        <v>31028775</v>
+        <v>36007323</v>
       </c>
       <c r="BU3" s="3">
-        <v>31028776</v>
+        <v>36007324</v>
       </c>
       <c r="BV3" s="3">
-        <v>31028777</v>
+        <v>36007325</v>
       </c>
       <c r="BW3" s="3">
-        <v>31028778</v>
+        <v>36007326</v>
       </c>
       <c r="BX3" s="3">
-        <v>31028779</v>
+        <v>36007327</v>
       </c>
       <c r="BY3" s="3">
-        <v>31028780</v>
+        <v>36007328</v>
       </c>
       <c r="BZ3" s="3">
-        <v>31028781</v>
+        <v>36007329</v>
       </c>
       <c r="CA3" s="3">
-        <v>31028782</v>
+        <v>36007330</v>
       </c>
       <c r="CB3" s="3">
-        <v>31028783</v>
+        <v>36007331</v>
       </c>
       <c r="CC3" s="3">
-        <v>31028784</v>
+        <v>36007332</v>
       </c>
       <c r="CD3" s="3">
-        <v>31028785</v>
+        <v>36007333</v>
       </c>
       <c r="CE3" s="3">
-        <v>31028786</v>
+        <v>36007334</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="C4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="D4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="E4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="F4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="G4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="H4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="I4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="J4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="K4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="L4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="M4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="N4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="O4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="P4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="Q4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="R4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="S4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="T4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="U4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="V4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="W4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="X4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="Y4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="Z4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AA4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AB4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AC4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AD4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AE4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AF4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AG4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AH4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AI4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AJ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AK4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AL4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AM4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AN4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AO4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AP4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AQ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AR4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AS4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AT4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AU4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AV4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AW4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AX4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AY4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="AZ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BA4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BB4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BC4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BD4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BE4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BF4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BG4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BH4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BI4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BJ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BK4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BL4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BM4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BN4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BO4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BP4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BQ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BR4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BS4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BT4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BU4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BV4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BW4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BX4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BY4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="BZ4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="CA4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="CB4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="CC4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="CD4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
       <c r="CE4" s="3">
-        <v>30429</v>
+        <v>35642</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>97</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
@@ -4900,12 +4900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="3">
-        <v>1402490.73</v>
+        <v>2387412.1800000002</v>
       </c>
       <c r="C16" s="3">
         <v>27026.55</v>
@@ -4917,7 +4917,7 @@
         <v>1121892.18</v>
       </c>
       <c r="F16" s="3">
-        <v>223452</v>
+        <v>1208373.45</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>103</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>104</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>106</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>108</v>
       </c>
@@ -6657,12 +6657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="3">
-        <v>1641482.0233895001</v>
+        <v>2626403.4733894998</v>
       </c>
       <c r="C23" s="3">
         <v>28147.074000000001</v>
@@ -6674,7 +6674,7 @@
         <v>1317559.4648019001</v>
       </c>
       <c r="F23" s="3">
-        <v>259200.6588</v>
+        <v>1244122.1088</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6908,12 +6908,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="3">
-        <v>1641482.0233895001</v>
+        <v>2626403.4733894998</v>
       </c>
       <c r="C24" s="3">
         <v>28147.074000000001</v>
@@ -6925,7 +6925,7 @@
         <v>1317559.4648019001</v>
       </c>
       <c r="F24" s="3">
-        <v>259200.6588</v>
+        <v>1244122.1088</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -7159,12 +7159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B25" s="3">
-        <v>1904163.9769119001</v>
+        <v>2889085.4269118998</v>
       </c>
       <c r="C25" s="3">
         <v>44778.779843999997</v>
@@ -7176,7 +7176,7 @@
         <v>1468869.001622</v>
       </c>
       <c r="F25" s="3">
-        <v>334530.84057360003</v>
+        <v>1319452.2905736</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -7410,12 +7410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="3">
-        <v>1904163.9769119001</v>
+        <v>2889085.4269118998</v>
       </c>
       <c r="C26" s="3">
         <v>44778.779843999997</v>
@@ -7427,7 +7427,7 @@
         <v>1468869.001622</v>
       </c>
       <c r="F26" s="3">
-        <v>334530.84057360003</v>
+        <v>1319452.2905736</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>114</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -8414,21 +8414,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="3">
-        <v>40639.909406268998</v>
+        <v>39340.286160850999</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>2658.7923356227002</v>
+        <v>2650.2163849881999</v>
       </c>
       <c r="E30" s="3">
-        <v>37981.117070646003</v>
+        <v>36690.069775862998</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -8916,21 +8916,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="3">
-        <v>98143.952986138</v>
+        <v>103513.77313294</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>629.18562304468003</v>
+        <v>1195.3477777759001</v>
       </c>
       <c r="E32" s="3">
-        <v>97514.767363093997</v>
+        <v>102304.54867986</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -9167,21 +9167,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="3">
-        <v>796832.41776265996</v>
+        <v>800902.61466405005</v>
       </c>
       <c r="C33" s="3">
         <v>5626.9973392228003</v>
       </c>
       <c r="D33" s="3">
-        <v>136549.36375277999</v>
+        <v>137106.94995688001</v>
       </c>
       <c r="E33" s="3">
-        <v>515648.97371396999</v>
+        <v>519147.70773595001</v>
       </c>
       <c r="F33" s="3">
         <v>139007.08295668001</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>120</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>122</v>
       </c>
@@ -10171,24 +10171,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="3">
-        <v>6598295.1178489001</v>
+        <v>7587286.7647503</v>
       </c>
       <c r="C37" s="3">
         <v>105764.45559897</v>
       </c>
       <c r="D37" s="3">
-        <v>676888.26016427996</v>
+        <v>677445.84636837</v>
       </c>
       <c r="E37" s="3">
-        <v>4381848.4108849997</v>
+        <v>4385347.1449069995</v>
       </c>
       <c r="F37" s="3">
-        <v>1433917.7701751001</v>
+        <v>2418839.2201751</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -10422,24 +10422,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="3">
-        <v>6555770.2898345003</v>
+        <v>7544761.9367359001</v>
       </c>
       <c r="C38" s="3">
         <v>105764.45559897</v>
       </c>
       <c r="D38" s="3">
-        <v>810423.67253859004</v>
+        <v>810981.25874268997</v>
       </c>
       <c r="E38" s="3">
-        <v>4205788.1704962999</v>
+        <v>4209286.9045182997</v>
       </c>
       <c r="F38" s="3">
-        <v>1433917.7701751001</v>
+        <v>2418839.2201751</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -10673,12 +10673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B39" s="3">
-        <v>1.4903127732956001</v>
+        <v>1.7136896998705</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -10924,12 +10924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="3">
-        <v>1.4807079748984</v>
+        <v>1.7040849014732999</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>127</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>128</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>130</v>
       </c>
@@ -12179,12 +12179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B45" s="3">
-        <v>6180554.7178488998</v>
+        <v>7169546.3647502996</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -12430,12 +12430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B46" s="3">
-        <v>6138029.8898344999</v>
+        <v>7127021.5367358997</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>133</v>
       </c>
@@ -12692,13 +12692,13 @@
         <v>105764.45559897</v>
       </c>
       <c r="D47" s="3">
-        <v>643591.90044156997</v>
+        <v>644122.05879395001</v>
       </c>
       <c r="E47" s="3">
-        <v>120624.57285832</v>
+        <v>120720.88684671</v>
       </c>
       <c r="F47" s="3">
-        <v>1433917.7701751001</v>
+        <v>2418839.2201751</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
@@ -12943,13 +12943,13 @@
         <v>105764.45559897</v>
       </c>
       <c r="D48" s="3">
-        <v>770558.66125580005</v>
+        <v>771088.81960817997</v>
       </c>
       <c r="E48" s="3">
-        <v>115777.94438037999</v>
+        <v>115874.25836877</v>
       </c>
       <c r="F48" s="3">
-        <v>1433917.7701751001</v>
+        <v>2418839.2201751</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>135</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>33296.359722704001</v>
+        <v>33323.787574419999</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -13434,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>39865.011282794003</v>
+        <v>39892.439134510001</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -13685,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>137</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>4261223.8380266996</v>
+        <v>4264626.2580602998</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>138</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>4090010.2261159001</v>
+        <v>4093412.6461494998</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>140</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>141</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>142</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>143</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>144</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>145</v>
       </c>
@@ -15704,10 +15704,10 @@
         <v>10544.811126516999</v>
       </c>
       <c r="D59" s="3">
-        <v>5222.9032420083004</v>
+        <v>5227.2056046941998</v>
       </c>
       <c r="E59" s="3">
-        <v>8999.2670352448004</v>
+        <v>9006.4525968609996</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>146</v>
       </c>
@@ -15955,10 +15955,10 @@
         <v>10544.811126516999</v>
       </c>
       <c r="D60" s="3">
-        <v>6253.2690782298996</v>
+        <v>6257.5714409157999</v>
       </c>
       <c r="E60" s="3">
-        <v>8637.6814738612993</v>
+        <v>8644.8670354775004</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>147</v>
       </c>
@@ -16206,13 +16206,13 @@
         <v>12.298192511508001</v>
       </c>
       <c r="D61" s="3">
-        <v>11.882062225451</v>
+        <v>11.891850065429001</v>
       </c>
       <c r="E61" s="3">
-        <v>2.3188114736316998</v>
+        <v>2.3206629536083998</v>
       </c>
       <c r="F61" s="3">
-        <v>1.7693099297727</v>
+        <v>2.9846036779757998</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
@@ -16457,13 +16457,13 @@
         <v>12.298192511508001</v>
       </c>
       <c r="D62" s="3">
-        <v>14.22613608891</v>
+        <v>14.235923928887001</v>
       </c>
       <c r="E62" s="3">
-        <v>2.2256429138865998</v>
+        <v>2.2274943938631999</v>
       </c>
       <c r="F62" s="3">
-        <v>1.7693099297727</v>
+        <v>2.9846036779757998</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>149</v>
       </c>
@@ -16708,13 +16708,13 @@
         <v>23.204136814165999</v>
       </c>
       <c r="D63" s="3">
-        <v>26.404582723225001</v>
+        <v>26.426333478730999</v>
       </c>
       <c r="E63" s="3">
-        <v>4.3751159879844002</v>
+        <v>4.3786093464308999</v>
       </c>
       <c r="F63" s="3">
-        <v>2.3877324164521001</v>
+        <v>4.0278047572369999</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>150</v>
       </c>
@@ -16959,13 +16959,13 @@
         <v>23.204136814165999</v>
       </c>
       <c r="D64" s="3">
-        <v>31.613635753133</v>
+        <v>31.635386508638</v>
       </c>
       <c r="E64" s="3">
-        <v>4.1993262526162001</v>
+        <v>4.2028196110626999</v>
       </c>
       <c r="F64" s="3">
-        <v>2.3877324164521001</v>
+        <v>4.0278047572369999</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -17199,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>151</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>1.1311615108296</v>
+        <v>1.1320646989117</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -17450,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>1.0857120683020001</v>
+        <v>1.0866152563841001</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>153</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>154</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="3">
-        <v>10.102050886742999</v>
+        <v>10.110372443695001</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>156</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="3">
-        <v>12.094967015410999</v>
+        <v>12.103288572364001</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>157</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -19207,21 +19207,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="3">
-        <v>14124.574800062001</v>
+        <v>16241.649929895</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>9168.5449731944009</v>
+        <v>9176.0975553406006</v>
       </c>
       <c r="E73" s="3">
-        <v>12492.341721159</v>
+        <v>12502.316365851</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -19458,21 +19458,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B74" s="3">
-        <v>14033.544450036001</v>
+        <v>16150.619579869001</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
       </c>
       <c r="D74" s="3">
-        <v>10977.300577215001</v>
+        <v>10984.853159361001</v>
       </c>
       <c r="E74" s="3">
-        <v>11990.406355028999</v>
+        <v>12000.380999720999</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
